--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646933</v>
+        <v>572993.619011226</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226764</v>
+        <v>8547013.059513943</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -659,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>165.1725371760944</v>
       </c>
-      <c r="D2" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="E2" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="F2" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.73964154763125</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.45644170423097</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040576</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>49.98383149362969</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>12.93042516928149</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="H7" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>133.6307518247556</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>97.17069882542259</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>52.21594625443454</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>166.8904069722265</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>41.96425921496922</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1427,13 +1429,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>314.9029209504225</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>160.8915086215183</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H14" t="n">
-        <v>218.5174356271577</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.842886239454</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>210.8035104954931</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>205.1127822067371</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>259.745986536829</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.013844480175844</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>115.0138334144183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>184.1477353216906</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>361.5887724808703</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>69.9992452580473</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>249.7596149855663</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>117.4137306658388</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>141.4558507036723</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>146.2529838800233</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>288.1408797919099</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247742</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37422363854175</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.95014028179168</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2883,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851115</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>127.6752559270064</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>27.06574661157912</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>122.4906456029432</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>61.4728079298568</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>336.5720236022909</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>114.5505532674836</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247724</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>194.9868712368892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>23.79925355567368</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>39.35604302001447</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>31.93582623762956</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>190.1921129400379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680972</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>53.54735467376835</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>100.8723434960327</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.7083496784897</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.95866062610916</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227596</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062749</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
         <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652792</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652792</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652792</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264275</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264275</v>
+        <v>736.5099833074698</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264275</v>
+        <v>736.5099833074698</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264275</v>
+        <v>547.0901982909852</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099428</v>
+        <v>547.0901982909852</v>
       </c>
       <c r="W3" t="n">
-        <v>298.0982375934582</v>
+        <v>547.0901982909852</v>
       </c>
       <c r="X3" t="n">
-        <v>108.6784525769735</v>
+        <v>547.0901982909852</v>
       </c>
       <c r="Y3" t="n">
-        <v>108.6784525769735</v>
+        <v>357.6704132745006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230163</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170695</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396302</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8416170062748</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897902</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897902</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330558</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330558</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678492</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058936</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644751</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123823</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985577</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T5" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U5" t="n">
-        <v>750.102348665279</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V5" t="n">
-        <v>750.102348665279</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W5" t="n">
-        <v>750.102348665279</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X5" t="n">
-        <v>750.102348665279</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="Y5" t="n">
-        <v>583.2614020227594</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336.2349471645391</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C6" t="n">
-        <v>336.2349471645391</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D6" t="n">
-        <v>187.3005375032878</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E6" t="n">
-        <v>28.06308249783234</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024206</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772647</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264275</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>525.6547321810237</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>336.2349471645391</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U6" t="n">
-        <v>336.2349471645391</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V6" t="n">
-        <v>336.2349471645391</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W6" t="n">
-        <v>336.2349471645391</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X6" t="n">
-        <v>336.2349471645391</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y6" t="n">
-        <v>336.2349471645391</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170709</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1256.740097465976</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="C8" t="n">
-        <v>1256.740097465976</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058953</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="U8" t="n">
-        <v>2033.47926950591</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="V8" t="n">
-        <v>2033.47926950591</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="W8" t="n">
-        <v>2033.47926950591</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="X8" t="n">
-        <v>2033.47926950591</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Y8" t="n">
-        <v>1643.339937530098</v>
+        <v>750.1023486652801</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>464.9088565162518</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>290.4558272351247</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>141.5214175738735</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024218</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017065</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>583.2614020227603</v>
       </c>
       <c r="U9" t="n">
-        <v>1538.125457466751</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="V9" t="n">
-        <v>1302.973349235008</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W9" t="n">
-        <v>1048.735992506806</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X9" t="n">
-        <v>840.8844923012737</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y9" t="n">
-        <v>633.1241935363198</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126813</v>
+        <v>67.74542702829</v>
       </c>
       <c r="S10" t="n">
-        <v>211.9453651969077</v>
+        <v>67.74542702829</v>
       </c>
       <c r="T10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="U10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.583838282732</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2437.723170258544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2437.723170258544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X11" t="n">
-        <v>2437.723170258544</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y11" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
@@ -5236,13 +5238,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2268.308520734407</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C14" t="n">
-        <v>1899.346003793995</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D14" t="n">
-        <v>1541.080305187244</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E14" t="n">
-        <v>1155.292052589</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F14" t="n">
-        <v>744.3061477993926</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G14" t="n">
-        <v>329.2336976443891</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995486</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734407</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2268.308520734407</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C16" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U16" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V16" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W16" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X16" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2212.771568013854</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1843.809051073443</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1485.543352466692</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>1099.755099868448</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>688.7691950788405</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>273.696744923837</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5537,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339056</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.371408077976</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y17" t="n">
-        <v>2599.371408077976</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>69.55640378589638</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5701,22 +5703,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V19" t="n">
-        <v>804.7114165106916</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2942464737309</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="X19" t="n">
-        <v>287.3046955757135</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218342</v>
+        <v>216.4463512838067</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038042</v>
+        <v>2295.336172843073</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1926.373655902661</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1568.107957295911</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1182.319704697666</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>771.3337999080588</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810543</v>
@@ -5783,19 +5785,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102164</v>
+        <v>2681.936012907195</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.5121164321834</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5121164321834</v>
+        <v>234.5441019553</v>
       </c>
       <c r="D22" t="n">
-        <v>66.5121164321834</v>
+        <v>234.5441019553</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>234.5441019553</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>234.5441019553</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>234.5441019553</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I22" t="n">
         <v>66.5121164321834</v>
@@ -5938,22 +5940,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X22" t="n">
-        <v>66.5121164321834</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.5121164321834</v>
+        <v>403.4802848832069</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1413.152313590628</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>1027.364060992384</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>616.3781562027762</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5987,7 +5989,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3096.715425190973</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>3096.715425190973</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V23" t="n">
-        <v>2765.652537847403</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W23" t="n">
-        <v>2765.652537847403</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X23" t="n">
-        <v>2392.186779586323</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
@@ -6072,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>363.5187033424295</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C25" t="n">
-        <v>363.5187033424295</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D25" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
         <v>66.5121164321834</v>
@@ -6175,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>778.0023081377078</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>488.8994412633513</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="W25" t="n">
-        <v>773.1567190706866</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="X25" t="n">
-        <v>545.1671681726692</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y25" t="n">
-        <v>545.1671681726692</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2277.953133796416</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C26" t="n">
-        <v>1908.990616856005</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6227,7 +6229,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X26" t="n">
-        <v>2277.953133796416</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y26" t="n">
-        <v>2277.953133796416</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
@@ -6303,13 +6305,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>310.0549803959802</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C28" t="n">
-        <v>310.0549803959802</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D28" t="n">
-        <v>310.0549803959802</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6406,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>853.8423354762235</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>853.8423354762235</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>853.8423354762235</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>564.7394686018671</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>310.0549803959802</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>310.0549803959802</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>310.0549803959802</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>310.0549803959802</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1221.551972426786</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6546,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.4482993600903</v>
+        <v>342.366968906868</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>342.366968906868</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>342.366968906868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>342.366968906868</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>195.4770214089576</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>195.4770214089576</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U31" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V31" t="n">
-        <v>444.4359021818241</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W31" t="n">
-        <v>444.4359021818241</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X31" t="n">
-        <v>417.09676419033</v>
+        <v>342.366968906868</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.09676419033</v>
+        <v>342.366968906868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1888.09808975843</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C32" t="n">
-        <v>1519.135572818019</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.869874211268</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E32" t="n">
-        <v>775.0816216130238</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2788.565186649821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2788.565186649821</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>2664.837261798364</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>2274.697929822552</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.8974549201675</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C34" t="n">
-        <v>523.9612719922607</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D34" t="n">
-        <v>373.8446325799249</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>225.9315389975318</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>225.9315389975318</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>225.9315389975318</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6883,25 +6885,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="X34" t="n">
-        <v>692.8974549201675</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.8974549201675</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1179.52858457759</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C35" t="n">
-        <v>810.5660676371781</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="D35" t="n">
-        <v>452.3003690304276</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218339</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218339</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X35" t="n">
-        <v>1956.267756617523</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y35" t="n">
-        <v>1566.128424641711</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2936.963501843179</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>2936.963501843179</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>2786.846862430843</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>2638.93376884845</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>2638.93376884845</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435996</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>2936.963501843179</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>2936.963501843179</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V37" t="n">
-        <v>2936.963501843179</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W37" t="n">
-        <v>2936.963501843179</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X37" t="n">
-        <v>2936.963501843179</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y37" t="n">
-        <v>2936.963501843179</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7193,31 +7195,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2731.767278738087</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2731.767278738087</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>2731.767278738087</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>2731.767278738087</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064581</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3143.95735677893</v>
+        <v>2503.489342564209</v>
       </c>
       <c r="C40" t="n">
-        <v>2975.021173851023</v>
+        <v>2503.489342564209</v>
       </c>
       <c r="D40" t="n">
-        <v>2824.904534438687</v>
+        <v>2503.489342564209</v>
       </c>
       <c r="E40" t="n">
-        <v>2785.150955630592</v>
+        <v>2503.489342564209</v>
       </c>
       <c r="F40" t="n">
-        <v>2785.150955630592</v>
+        <v>2503.489342564209</v>
       </c>
       <c r="G40" t="n">
-        <v>2617.448119005311</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H40" t="n">
         <v>2471.230932223169</v>
@@ -7333,19 +7335,19 @@
         <v>2483.053685760608</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028278</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L40" t="n">
         <v>2737.074383950636</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249833</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N40" t="n">
         <v>3075.815702279681</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.73405149787</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P40" t="n">
         <v>3312.685054250629</v>
@@ -7357,25 +7359,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.60582160917</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.60582160917</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.60582160917</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.60582160917</v>
+        <v>2905.930386537979</v>
       </c>
       <c r="Y40" t="n">
-        <v>3325.60582160917</v>
+        <v>2685.137807394449</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1698.50962791956</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1329.547110979148</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>971.2814123723974</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1698.50962791956</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7494,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.6003534763939</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6003534763939</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D43" t="n">
-        <v>120.6003534763939</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7597,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133545</v>
+        <v>818.9957497615862</v>
       </c>
       <c r="V43" t="n">
-        <v>410.0175235133545</v>
+        <v>818.9957497615862</v>
       </c>
       <c r="W43" t="n">
-        <v>120.6003534763939</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="X43" t="n">
-        <v>120.6003534763939</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.6003534763939</v>
+        <v>529.5785797246257</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.511388127729</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.548871187317</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>905.2831725805665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7655,7 +7657,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7670,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3113.779205772313</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2782.716318428742</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2782.716318428742</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2409.250560167662</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.11122819185</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7724,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>3304.435457340374</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="U46" t="n">
-        <v>3015.332590466017</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V46" t="n">
-        <v>2760.648102260131</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W46" t="n">
-        <v>2471.23093222317</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
   </sheetData>
@@ -22547,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>200.1003545949131</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.097833230058</v>
@@ -22565,7 +22567,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22604,16 +22606,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940405</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510933</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121493</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.79354210223609</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22644,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>136.3138029867187</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098464</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784843</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976608</v>
       </c>
     </row>
     <row r="5">
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971608</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046878</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22838,10 +22840,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940404</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.0654014799592</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,13 +22868,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>97.46123407100907</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>132.1387872241024</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.1637893657753</v>
@@ -22881,10 +22883,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681498</v>
+        <v>7.88401062568127</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
@@ -22923,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H7" t="n">
-        <v>101.2177245773853</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402855</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>151.7212889301275</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>117.4403408693603</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>60.47438162997835</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>30.23706061590681</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.33818124377089</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310523</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599459957</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>101.217724577385</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>54.47741176207617</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>339.9661108572926</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>12.84933751971238</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.134299637509969</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H14" t="n">
-        <v>76.09032876016278</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>75.40832771011978</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>89.49498218058341</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23792,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>89.49498218058397</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>163.0119637788524</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23941,22 +23943,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>137.1238099094097</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>181.1251564493169</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.33295317258319</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,16 +24025,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>74.75576965627349</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>161.1621106678871</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>86.5042394737813</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -24266,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24415,19 +24417,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>78.0930985724969</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>140.2700144565677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>66.54216182877309</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>222.7020862222426</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.55792903150558</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24655,10 +24657,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.7837013816889</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>17.07975898731436</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24889,19 +24891,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>198.643908777458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24968,19 +24970,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>247.2404550755258</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>83.28220698446398</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>58.21681249017277</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>18.11101801839203</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1805474109854</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>24.56207803928004</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>214.1238107588402</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>303.9530049144612</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>107.0779196265547</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>134.0899820213987</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25597,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>191.7382571322239</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>181.1251564493158</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>92.88660797280082</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25837,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>185.3394947095802</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>41.28682228041225</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26074,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>198.59028865006</v>
+        <v>138.0881058334839</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061949</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526515</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903118</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26319,43 @@
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784387</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="F2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>312588.9285003119</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312588.928500312</v>
       </c>
       <c r="H2" t="n">
         <v>312588.9285003119</v>
       </c>
       <c r="I2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="J2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="K2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003119</v>
       </c>
-      <c r="J2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="K2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003116</v>
-      </c>
       <c r="M2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003117</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208451</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487662</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127035</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608617</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
@@ -26494,13 +26496,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
@@ -26509,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266546</v>
+        <v>-490172.8407266544</v>
       </c>
       <c r="C6" t="n">
+        <v>101184.0617941902</v>
+      </c>
+      <c r="D6" t="n">
         <v>101184.0617941906</v>
       </c>
-      <c r="D6" t="n">
-        <v>-211801.3102514467</v>
-      </c>
       <c r="E6" t="n">
-        <v>-38332.80481699765</v>
+        <v>-389436.7026837551</v>
       </c>
       <c r="F6" t="n">
         <v>237697.9409499124</v>
       </c>
       <c r="G6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="H6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="I6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="J6" t="n">
+        <v>188632.9962213677</v>
+      </c>
+      <c r="K6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="L6" t="n">
         <v>237697.9409499125</v>
       </c>
-      <c r="H6" t="n">
-        <v>237697.9409499125</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>77241.49908203495</v>
+      </c>
+      <c r="N6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="O6" t="n">
         <v>237697.9409499124</v>
       </c>
-      <c r="J6" t="n">
-        <v>188632.9962213679</v>
-      </c>
-      <c r="K6" t="n">
-        <v>237697.9409499125</v>
-      </c>
-      <c r="L6" t="n">
-        <v>147954.5628186418</v>
-      </c>
-      <c r="M6" t="n">
-        <v>165606.5883338263</v>
-      </c>
-      <c r="N6" t="n">
-        <v>237697.9409499123</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>237697.9409499122</v>
-      </c>
-      <c r="P6" t="n">
-        <v>237697.9409499121</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
@@ -26814,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247797</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061601</v>
@@ -31358,46 +31360,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31996,7 +31998,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953979</v>
       </c>
       <c r="K14" t="n">
         <v>557.281137600381</v>
@@ -32470,10 +32472,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953979</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003801</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -32792,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026443</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33679,7 +33681,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563555</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
         <v>99.83230779806951</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33913,7 +33915,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781676</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563569</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646075</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553995</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36440,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597762</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37327,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37561,7 +37563,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037181</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.619011226</v>
+        <v>515726.6621658593</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513943</v>
+        <v>8088944.869226759</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312847</v>
+        <v>8722880.896883905</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>88.09081815943041</v>
       </c>
       <c r="V2" t="n">
-        <v>165.1725371760944</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>13.45644170423097</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663197</v>
+        <v>130.494984023001</v>
       </c>
     </row>
     <row r="4">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F5" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.52558716632</v>
+        <v>88.09081815943075</v>
       </c>
       <c r="V5" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>49.98383149362969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>164.6104043214402</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>187.52558716632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>165.1725371760947</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>134.8351877321025</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>133.6980886148209</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.52558716632</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>52.21594625443454</v>
+        <v>31.68046530976811</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>41.96425921496922</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1429,16 +1429,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>57.29212650174214</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I12" t="n">
         <v>18.81721868247742</v>
@@ -1499,7 +1499,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8915086215183</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>316.3713552875025</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>108.0281307225235</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>210.8035104954931</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>194.2377928517795</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>259.745986536829</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.013844480175844</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>361.5887724808703</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>69.9992452580473</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>127.6752559270064</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>249.7596149855663</v>
+        <v>52.45726733572555</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.978140404250347</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>141.4558507036723</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>219.18346852123</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>126.5388824951704</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>54.87175400786692</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>126.5388824951718</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>127.6752559270064</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>81.77200357366344</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>187.1115933738219</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>135.8126782397848</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>128.8771852996431</v>
       </c>
       <c r="D35" t="n">
-        <v>336.5720236022909</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3398,7 +3398,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.0880274467727</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>219.1834685212301</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>31.93582623762956</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>87.93270968653144</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680972</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>81.46084344268539</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>100.8723434960327</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>178.6478431952951</v>
       </c>
       <c r="W44" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>127.6752559270064</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>81.4608434426853</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330558</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652789</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652789</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652789</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652789</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V2" t="n">
-        <v>583.2614020227593</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="W2" t="n">
-        <v>393.8416170062748</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="X2" t="n">
         <v>204.4218319897901</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330558</v>
+        <v>204.4218319897901</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652789</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="S3" t="n">
-        <v>736.5099833074698</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="T3" t="n">
-        <v>736.5099833074698</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="U3" t="n">
-        <v>547.0901982909852</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="V3" t="n">
-        <v>547.0901982909852</v>
+        <v>336.2349471645385</v>
       </c>
       <c r="W3" t="n">
-        <v>547.0901982909852</v>
+        <v>146.815162148054</v>
       </c>
       <c r="X3" t="n">
-        <v>547.0901982909852</v>
+        <v>146.815162148054</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.6704132745006</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230163</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170695</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396302</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C5" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D5" t="n">
-        <v>393.8416170062752</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E5" t="n">
-        <v>393.8416170062752</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
         <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U5" t="n">
-        <v>560.6825636487949</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V5" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W5" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062752</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371.2627786323101</v>
+        <v>204.9896429540875</v>
       </c>
       <c r="C6" t="n">
-        <v>371.2627786323101</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="D6" t="n">
-        <v>320.7740599518761</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="E6" t="n">
-        <v>161.5366049464206</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546602</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T6" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W6" t="n">
-        <v>371.2627786323101</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X6" t="n">
-        <v>371.2627786323101</v>
+        <v>204.9896429540875</v>
       </c>
       <c r="Y6" t="n">
-        <v>371.2627786323101</v>
+        <v>204.9896429540875</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6825636487953</v>
+        <v>1094.823960628121</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6825636487953</v>
+        <v>1094.823960628121</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487953</v>
+        <v>736.5582620213706</v>
       </c>
       <c r="E8" t="n">
-        <v>371.2627786323104</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="F8" t="n">
-        <v>371.2627786323104</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8429936158255</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678498</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058953</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644757</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123831</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602027</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652801</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652801</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652801</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652801</v>
+        <v>1094.823960628121</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.1023486652801</v>
+        <v>1094.823960628121</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024218</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140245</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476351</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017065</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652799</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652799</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652799</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>583.2614020227603</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>393.8416170062754</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V9" t="n">
-        <v>204.4218319897905</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W9" t="n">
-        <v>15.0020469733056</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X9" t="n">
-        <v>15.0020469733056</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0020469733056</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702829</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702829</v>
+        <v>222.2596140458702</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702829</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702829</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>27.0396705623018</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170723</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396344</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1274.539111149739</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1274.539111149739</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1274.539111149739</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
         <v>1232.150970528558</v>
@@ -5038,7 +5038,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912089</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450753</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.278283189673</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y11" t="n">
-        <v>1661.138951213861</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>229.0287918074544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>229.0287918074544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>229.0287918074544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>229.0287918074544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>229.0287918074544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
@@ -5229,22 +5229,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W13" t="n">
-        <v>631.4698357812242</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X13" t="n">
-        <v>631.4698357812242</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y13" t="n">
-        <v>410.6772566376941</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1822.632236038042</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
-        <v>1453.669719097631</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>1095.40402049088</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>709.6157678926361</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>298.6298631030285</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339056</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077976</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102164</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,34 +5375,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.5121164321834</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="C16" t="n">
-        <v>66.5121164321834</v>
+        <v>470.4344814746319</v>
       </c>
       <c r="D16" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S16" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T16" t="n">
-        <v>507.4345062145372</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U16" t="n">
-        <v>294.5016673302007</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="V16" t="n">
-        <v>294.5016673302007</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="W16" t="n">
-        <v>294.5016673302007</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="X16" t="n">
-        <v>66.5121164321834</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.5121164321834</v>
+        <v>639.3706644025388</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>971.281412372397</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>560.2955075827895</v>
       </c>
       <c r="G17" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>3063.236138238636</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2689.770379977556</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>2689.770379977556</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.4463512838067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>216.4463512838067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>216.4463512838067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>216.4463512838067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>69.55640378589638</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5703,22 +5703,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877109</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U19" t="n">
-        <v>699.1203903877109</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V19" t="n">
-        <v>444.4359021818241</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W19" t="n">
-        <v>444.4359021818241</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X19" t="n">
-        <v>216.4463512838067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.4463512838067</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2295.336172843073</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C20" t="n">
-        <v>1926.373655902661</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D20" t="n">
-        <v>1568.107957295911</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E20" t="n">
-        <v>1182.319704697666</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="F20" t="n">
-        <v>771.3337999080588</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>3072.075344883006</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>3072.075344883006</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2681.936012907195</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>403.4802848832069</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C22" t="n">
-        <v>234.5441019553</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D22" t="n">
-        <v>234.5441019553</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>234.5441019553</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>234.5441019553</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>234.5441019553</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181849</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="W22" t="n">
-        <v>631.4698357812242</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X22" t="n">
-        <v>403.4802848832069</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y22" t="n">
-        <v>403.4802848832069</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1771.418012197378</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C23" t="n">
-        <v>1771.418012197378</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="D23" t="n">
-        <v>1413.152313590628</v>
+        <v>916.2734125429904</v>
       </c>
       <c r="E23" t="n">
-        <v>1027.364060992384</v>
+        <v>530.4851599447461</v>
       </c>
       <c r="F23" t="n">
-        <v>616.3781562027762</v>
+        <v>119.4992551551385</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.48361052258</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X23" t="n">
-        <v>2158.0178522615</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y23" t="n">
-        <v>2158.0178522615</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.2149530574644</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="C25" t="n">
-        <v>234.2149530574644</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574644</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>778.0023081377078</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>488.8994412633513</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V25" t="n">
-        <v>234.2149530574644</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W25" t="n">
-        <v>234.2149530574644</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X25" t="n">
-        <v>234.2149530574644</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="Y25" t="n">
-        <v>234.2149530574644</v>
+        <v>217.4203875707507</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2047.583838282732</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.4780323548191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.1264971850588</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C29" t="n">
         <v>1678.62132134232</v>
@@ -6460,55 +6460,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3159.889138986905</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="W29" t="n">
-        <v>3197.788768583745</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X29" t="n">
-        <v>2824.323010322666</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y29" t="n">
-        <v>2434.183678346854</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>195.4770214089576</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>195.4770214089576</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>631.7841389438286</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W31" t="n">
-        <v>342.366968906868</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X31" t="n">
-        <v>342.366968906868</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y31" t="n">
-        <v>342.366968906868</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>298.6298631030285</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
         <v>66.5121164321834</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6730,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>385.564938772426</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C34" t="n">
-        <v>216.6287558445191</v>
+        <v>666.202517612298</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>788.0059827461959</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>788.0059827461959</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>788.0059827461959</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>788.0059827461959</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W34" t="n">
-        <v>788.0059827461959</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X34" t="n">
-        <v>788.0059827461959</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y34" t="n">
-        <v>567.2134036026657</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1274.539111149741</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C35" t="n">
-        <v>1274.539111149741</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
         <v>934.5673701373257</v>
@@ -6937,52 +6937,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450754</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X35" t="n">
-        <v>2051.278283189674</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y35" t="n">
-        <v>1661.138951213863</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218343</v>
@@ -7128,19 +7128,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W37" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X37" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y37" t="n">
-        <v>848.0708164780106</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2503.489342564209</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>2503.489342564209</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>2503.489342564209</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>2503.489342564209</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>2503.489342564209</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>3133.919937435996</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T40" t="n">
-        <v>3133.919937435996</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U40" t="n">
-        <v>3133.919937435996</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V40" t="n">
-        <v>3133.919937435996</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W40" t="n">
-        <v>3133.919937435996</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X40" t="n">
-        <v>2905.930386537979</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y40" t="n">
-        <v>2685.137807394449</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="41">
@@ -7402,52 +7402,52 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W41" t="n">
         <v>3155.791869823214</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.5785797246257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>360.6423967967187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>360.6423967967187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>818.9957497615862</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V43" t="n">
-        <v>818.9957497615862</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W43" t="n">
-        <v>529.5785797246257</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="X43" t="n">
-        <v>529.5785797246257</v>
+        <v>148.7957966773202</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.5785797246257</v>
+        <v>148.7957966773202</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
         <v>1278.358723975039</v>
@@ -7639,13 +7639,13 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.5121164321834</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372932</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>838.6033255730482</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>583.9188373671614</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W46" t="n">
-        <v>294.5016673302007</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X46" t="n">
-        <v>66.5121164321834</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.5121164321834</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
   </sheetData>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900532</v>
@@ -22603,19 +22603,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>163.0784424055999</v>
       </c>
       <c r="V2" t="n">
-        <v>162.5797212940405</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510933</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121493</v>
+        <v>182.2055135121494</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>136.3138029867187</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.3381812437712</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098464</v>
+        <v>75.18771175430336</v>
       </c>
     </row>
     <row r="4">
@@ -22761,7 +22761,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390163</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976608</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22840,10 +22840,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871038</v>
+        <v>163.0784424055996</v>
       </c>
       <c r="V5" t="n">
-        <v>162.5797212940404</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22865,16 +22865,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>97.46123407100907</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.1637893657753</v>
@@ -22886,7 +22886,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>7.88401062568127</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459965</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>41.1625808820373</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>114.7859889482797</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
         <v>153.4336708318196</v>
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059417</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>151.7212889301275</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>234.8959129463665</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>32.83509503504644</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846319</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>30.23706061590681</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377089</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310523</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459957</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23184,28 +23184,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>101.217724577385</v>
+        <v>116.8593460514771</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825415</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159723</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>339.9661108572926</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>270.4601319683928</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>5.134299637509969</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23469,13 +23469,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>69.86658336855112</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>40.58734229568886</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>75.40832771011978</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>216.6839328016739</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>89.49498218058397</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0119637788524</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,19 +23943,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>49.33295317258319</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>167.8579417260424</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>74.75576965627349</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>124.4623873968216</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>161.1621106678871</v>
+        <v>358.4644583177279</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4558222423188</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,10 +24417,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>78.0930985724969</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>191.7382571322234</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>222.7020862222426</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>196.1234179510351</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>222.7020862222412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>17.07975898731436</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>136.8126497784314</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24970,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>199.1263452822317</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>12.80279477842754</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>58.21681249017277</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25134,7 +25134,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>236.3957064713644</v>
       </c>
       <c r="D35" t="n">
-        <v>18.11101801839203</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>214.1238107588402</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>163.5503731422505</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0899820213987</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>101.8363156449105</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493158</v>
+        <v>290.3129182374914</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>98.37113673925191</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25842,16 +25842,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>185.3394947095802</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>149.1044152748398</v>
       </c>
       <c r="W44" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>20.94021709120599</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26076,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>138.0881058334839</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061949</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061952</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238765</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238765</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="E2" t="n">
         <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="H2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="I2" t="n">
         <v>312588.9285003117</v>
@@ -26340,19 +26340,19 @@
         <v>312588.9285003117</v>
       </c>
       <c r="K2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="L2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="M2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="N2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="L2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>312588.9285003117</v>
-      </c>
-      <c r="N2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="O2" t="n">
-        <v>312588.9285003118</v>
       </c>
       <c r="P2" t="n">
         <v>312588.9285003117</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487661</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336675</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127032</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>72091.35261608625</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137.8001180723338</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723341</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723341</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26435,7 +26435,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26450,7 +26450,7 @@
         <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061231</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26505,7 +26505,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266544</v>
+        <v>-502366.9027456889</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941902</v>
+        <v>88989.99977515574</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941906</v>
+        <v>-219414.6903676095</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837551</v>
+        <v>-42406.8001951672</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717429</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717425</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213677</v>
+        <v>184559.0008431981</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717428</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499125</v>
+        <v>143880.5674404724</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203495</v>
+        <v>161532.5929556566</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717428</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803936</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359725</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>289.2864986761298</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31281,13 +31281,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
         <v>280.4720934528639</v>
@@ -31299,25 +31299,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061601</v>
@@ -31363,7 +31363,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
@@ -31372,16 +31372,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
         <v>225.2762668628872</v>
@@ -31390,16 +31390,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31466,19 +31466,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32472,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32794,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33681,7 +33681,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S35" t="n">
         <v>99.83230779806951</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.1592157464608</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061155</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520829</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400552</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36442,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597762</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
